--- a/zadanie_01.xlsx
+++ b/zadanie_01.xlsx
@@ -1,31 +1,215 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariu\OneDrive\Desktop\EXCEL\BeckerWarkop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4092CFAE-D3BB-4215-992F-165DBF1D76DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="45" yWindow="2415" windowWidth="28350" windowHeight="11385" activeTab="1" xr2:uid="{0B97A8EA-E77B-459C-BA33-D77E966605B4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="handel" sheetId="2" r:id="rId2"/>
+    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
+    <sheet name="stałe" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="47">
+  <si>
+    <t>suma</t>
+  </si>
+  <si>
+    <t>średnia</t>
+  </si>
+  <si>
+    <t>ilośc</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>poniedziałek</t>
+  </si>
+  <si>
+    <t>wtorek</t>
+  </si>
+  <si>
+    <t>środa</t>
+  </si>
+  <si>
+    <t>czwartek</t>
+  </si>
+  <si>
+    <t>piątek</t>
+  </si>
+  <si>
+    <t>sobota</t>
+  </si>
+  <si>
+    <t>niedziela</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>lipiec</t>
+  </si>
+  <si>
+    <t>sierpień</t>
+  </si>
+  <si>
+    <t>wrzesień</t>
+  </si>
+  <si>
+    <t>październik</t>
+  </si>
+  <si>
+    <t>listopad</t>
+  </si>
+  <si>
+    <t>grudzień</t>
+  </si>
+  <si>
+    <t>janek</t>
+  </si>
+  <si>
+    <t>henryk</t>
+  </si>
+  <si>
+    <t>ola</t>
+  </si>
+  <si>
+    <t>fabian</t>
+  </si>
+  <si>
+    <t>romek</t>
+  </si>
+  <si>
+    <t>paweł</t>
+  </si>
+  <si>
+    <t>jonasz</t>
+  </si>
+  <si>
+    <t>kwartał I</t>
+  </si>
+  <si>
+    <t>kwartał II</t>
+  </si>
+  <si>
+    <t>kwartał III</t>
+  </si>
+  <si>
+    <t>kwartał IV</t>
+  </si>
+  <si>
+    <t>kurs euro</t>
+  </si>
+  <si>
+    <t>kurs dolara</t>
+  </si>
+  <si>
+    <t>marża</t>
+  </si>
+  <si>
+    <t>cena w dolarach</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$USD]_-;\-* #,##0.00\ [$USD]_-;_-* &quot;-&quot;??\ [$USD]_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,14 +230,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Walutowy" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +258,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -85,7 +274,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +286,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -109,7 +298,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -144,6 +333,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,9 +385,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -330,13 +553,1669 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A410A2C3-425D-4FF1-B9F7-8430D0B2D2E1}">
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>$A3*B$2</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:K3" si="0">$A3*C$2</f>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <f>SUM(B3:K3)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:K12" si="1">$A4*B$2</f>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L12" si="2">SUM(B4:K4)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B3:B12)</f>
+        <v>55</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:K13" si="3">SUM(C3:C12)</f>
+        <v>111</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>165</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>275</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>330</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>385</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>495</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <f>ROUND(AVERAGE(B2:B12),2)</f>
+        <v>5.09</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:K14" si="4">ROUND(AVERAGE(C2:C12),2)</f>
+        <v>10.27</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>15.27</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>20.36</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>25.45</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>30.55</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>35.64</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>40.729999999999997</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>45.82</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>50.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <f>COUNT(B3:B12)</f>
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:K15" si="5">COUNT(C3:C12)</f>
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>5.0990909090908998</v>
+      </c>
+      <c r="C18">
+        <v>10.1898181818182</v>
+      </c>
+      <c r="D18">
+        <v>15.2728727272727</v>
+      </c>
+      <c r="E18">
+        <v>20.363636363636363</v>
+      </c>
+      <c r="F18">
+        <v>25.454545454545453</v>
+      </c>
+      <c r="G18">
+        <v>30.545454545454547</v>
+      </c>
+      <c r="H18">
+        <v>35.636363636363633</v>
+      </c>
+      <c r="I18">
+        <v>40.727272727272727</v>
+      </c>
+      <c r="J18">
+        <v>45.81818181818182</v>
+      </c>
+      <c r="K18">
+        <v>50.909090909090907</v>
+      </c>
+      <c r="L18" s="2">
+        <f>SUM(B18:K18)</f>
+        <v>280.01632727272727</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <f>ROUND(B18,2)</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" ref="C19:J19" si="6">ROUND(C18,2)</f>
+        <v>10.19</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="6"/>
+        <v>15.27</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="6"/>
+        <v>20.36</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="6"/>
+        <v>25.45</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="6"/>
+        <v>30.55</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="6"/>
+        <v>35.64</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="6"/>
+        <v>40.729999999999997</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="6"/>
+        <v>45.82</v>
+      </c>
+      <c r="K19" s="1">
+        <f>ROUND(K18,2)</f>
+        <v>50.91</v>
+      </c>
+      <c r="L19" s="2">
+        <f>SUM(B19:K19)</f>
+        <v>280.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3C73E9-EBE1-4713-8861-F7ACA0562958}">
+  <dimension ref="B1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="str">
+        <f>Arkusz1!B1</f>
+        <v>a</v>
+      </c>
+      <c r="C1" t="str">
+        <f>Arkusz1!C1</f>
+        <v>b</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <f>Arkusz1!B2</f>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>Arkusz1!C2</f>
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="3">
+        <f>C2/stałe!$B$2</f>
+        <v>0.48192771084337344</v>
+      </c>
+      <c r="I2">
+        <v>0.48192771084337344</v>
+      </c>
+      <c r="J2" t="str">
+        <f>SUBSTITUTE(H2,",",".")</f>
+        <v>0.481927710843373</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>Arkusz1!B3</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>Arkusz1!C3</f>
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="3">
+        <f>C3/stałe!$B$2</f>
+        <v>0.48192771084337344</v>
+      </c>
+      <c r="I3">
+        <v>0.48192771084337344</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J15" si="0">SUBSTITUTE(I3,",",".")</f>
+        <v>0.481927710843373</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>Arkusz1!B4</f>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f>Arkusz1!C4</f>
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="3">
+        <f>C4/stałe!$B$2</f>
+        <v>0.96385542168674687</v>
+      </c>
+      <c r="I4">
+        <v>0.96385542168674687</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>0.963855421686747</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>Arkusz1!B5</f>
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f>Arkusz1!C5</f>
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="3">
+        <f>C5/stałe!$B$2</f>
+        <v>1.4457831325301203</v>
+      </c>
+      <c r="I5">
+        <v>1.4457831325301203</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>1.44578313253012</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>Arkusz1!B6</f>
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f>Arkusz1!C6</f>
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="3">
+        <f>C6/stałe!$B$2</f>
+        <v>1.9277108433734937</v>
+      </c>
+      <c r="I6">
+        <v>1.9277108433734937</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>1.92771084337349</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>Arkusz1!B7</f>
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f>Arkusz1!C7</f>
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="3">
+        <f>C7/stałe!$B$2</f>
+        <v>2.4096385542168672</v>
+      </c>
+      <c r="I7">
+        <v>2.4096385542168672</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>2.40963855421687</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>Arkusz1!B8</f>
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <f>Arkusz1!C8</f>
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="3">
+        <f>C8/stałe!$B$2</f>
+        <v>2.8915662650602405</v>
+      </c>
+      <c r="I8">
+        <v>2.8915662650602405</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>2.89156626506024</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>Arkusz1!B9</f>
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <f>Arkusz1!C9</f>
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="3">
+        <f>C9/stałe!$B$2</f>
+        <v>3.6144578313253009</v>
+      </c>
+      <c r="I9">
+        <v>3.6144578313253009</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>3.6144578313253</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>Arkusz1!B10</f>
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <f>Arkusz1!C10</f>
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="3">
+        <f>C10/stałe!$B$2</f>
+        <v>3.8554216867469875</v>
+      </c>
+      <c r="I10">
+        <v>3.8554216867469875</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>3.85542168674699</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>Arkusz1!B11</f>
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <f>Arkusz1!C11</f>
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="3">
+        <f>C11/stałe!$B$2</f>
+        <v>4.3373493975903612</v>
+      </c>
+      <c r="I11">
+        <v>4.3373493975903612</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>4.33734939759036</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>Arkusz1!B12</f>
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <f>Arkusz1!C12</f>
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="3">
+        <f>C12/stałe!$B$2</f>
+        <v>4.8192771084337345</v>
+      </c>
+      <c r="I12">
+        <v>4.8192771084337345</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>4.81927710843373</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>Arkusz1!B13</f>
+        <v>55</v>
+      </c>
+      <c r="C13">
+        <f>Arkusz1!C13</f>
+        <v>111</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="3">
+        <f>C13/stałe!$B$2</f>
+        <v>26.746987951807228</v>
+      </c>
+      <c r="I13">
+        <v>26.746987951807228</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>26.7469879518072</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>Arkusz1!B14</f>
+        <v>5.09</v>
+      </c>
+      <c r="C14">
+        <f>Arkusz1!C14</f>
+        <v>10.27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="3">
+        <f>C14/stałe!$B$2</f>
+        <v>2.4746987951807227</v>
+      </c>
+      <c r="I14">
+        <v>2.4746987951807227</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>2.47469879518072</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>Arkusz1!B15</f>
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <f>Arkusz1!C15</f>
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="3">
+        <f>C15/stałe!$B$2</f>
+        <v>2.4096385542168672</v>
+      </c>
+      <c r="I15">
+        <v>2.4096385542168672</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>2.40963855421687</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF5449E-D097-46EF-AB01-248912829DC2}">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f>Arkusz1!A1</f>
+        <v>0</v>
+      </c>
+      <c r="B1" t="str">
+        <f>Arkusz1!B1</f>
+        <v>a</v>
+      </c>
+      <c r="C1" t="str">
+        <f>Arkusz1!C1</f>
+        <v>b</v>
+      </c>
+      <c r="D1" t="str">
+        <f>Arkusz1!D1</f>
+        <v>c</v>
+      </c>
+      <c r="E1" t="str">
+        <f>Arkusz1!E1</f>
+        <v>d</v>
+      </c>
+      <c r="F1" t="str">
+        <f>Arkusz1!F1</f>
+        <v>e</v>
+      </c>
+      <c r="G1" t="str">
+        <f>Arkusz1!G1</f>
+        <v>f</v>
+      </c>
+      <c r="H1" t="str">
+        <f>Arkusz1!H1</f>
+        <v>g</v>
+      </c>
+      <c r="I1" t="str">
+        <f>Arkusz1!I1</f>
+        <v>h</v>
+      </c>
+      <c r="J1" t="str">
+        <f>Arkusz1!J1</f>
+        <v>i</v>
+      </c>
+      <c r="K1" t="str">
+        <f>Arkusz1!K1</f>
+        <v>j</v>
+      </c>
+      <c r="L1">
+        <f>Arkusz1!L1</f>
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <f>Arkusz1!M1</f>
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <f>Arkusz1!N1</f>
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <f>Arkusz1!O1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>Arkusz1!A2</f>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>Arkusz1!B2</f>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>Arkusz1!C2</f>
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f>Arkusz1!D2</f>
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f>Arkusz1!E2</f>
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <f>Arkusz1!F2</f>
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <f>Arkusz1!G2</f>
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <f>Arkusz1!H2</f>
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <f>Arkusz1!I2</f>
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <f>Arkusz1!J2</f>
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <f>Arkusz1!K2</f>
+        <v>10</v>
+      </c>
+      <c r="L2" t="str">
+        <f>Arkusz1!L2</f>
+        <v>suma</v>
+      </c>
+      <c r="M2">
+        <f>Arkusz1!M2</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>Arkusz1!N2</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>Arkusz1!O2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D29744-D2A9-49F3-8DA8-12163AD61AD7}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/zadanie_01.xlsx
+++ b/zadanie_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariu\OneDrive\Desktop\EXCEL\BeckerWarkop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4092CFAE-D3BB-4215-992F-165DBF1D76DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48F8CCF-D11E-43DE-9BF1-82FCBAA8C34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="2415" windowWidth="28350" windowHeight="11385" activeTab="1" xr2:uid="{0B97A8EA-E77B-459C-BA33-D77E966605B4}"/>
+    <workbookView xWindow="7860" yWindow="1320" windowWidth="14280" windowHeight="13260" firstSheet="3" activeTab="3" xr2:uid="{0B97A8EA-E77B-459C-BA33-D77E966605B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,15 @@
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
     <sheet name="stałe" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="dolar">stałe!$B$2</definedName>
+    <definedName name="euro">stałe!$B$1</definedName>
+    <definedName name="marza">stałe!$B$3</definedName>
+    <definedName name="minimum">stałe!$B$4</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,8 +45,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="54">
   <si>
     <t>suma</t>
   </si>
@@ -178,6 +209,27 @@
   </si>
   <si>
     <t>cena w dolarach</t>
+  </si>
+  <si>
+    <t>0.481927710843373</t>
+  </si>
+  <si>
+    <t>parsowanie</t>
+  </si>
+  <si>
+    <t>zamiana</t>
+  </si>
+  <si>
+    <t>w euro</t>
+  </si>
+  <si>
+    <t>z marżą</t>
+  </si>
+  <si>
+    <t>z marżą &gt;1</t>
+  </si>
+  <si>
+    <t>minimalka</t>
   </si>
 </sst>
 </file>
@@ -186,7 +238,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$USD]_-;\-* #,##0.00\ [$USD]_-;_-* &quot;-&quot;??\ [$USD]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$USD]_-;\-* #,##0.00\ [$USD]_-;_-* &quot;-&quot;??\ [$USD]_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -234,11 +286,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -255,6 +310,44 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="stałe"/>
+      <sheetName val="kursywalut"/>
+      <sheetName val="Arkusz4"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="moje" refersTo="='Arkusz4'!$C$3"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1">
+            <v>5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="C3">
+            <v>4.0788000000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="C3">
+            <v>4.0788000000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1345,19 +1438,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3C73E9-EBE1-4713-8861-F7ACA0562958}">
-  <dimension ref="B1:J15"/>
+  <dimension ref="B1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="L1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" t="str">
         <f>Arkusz1!B1</f>
         <v>a</v>
@@ -1384,8 +1479,23 @@
       <c r="I1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B2">
         <f>Arkusz1!B2</f>
         <v>1</v>
@@ -1408,17 +1518,33 @@
       </c>
       <c r="H2" s="3">
         <f>C2/stałe!$B$2</f>
-        <v>0.48192771084337344</v>
+        <v>0.49034029616553887</v>
       </c>
       <c r="I2">
-        <v>0.48192771084337344</v>
-      </c>
-      <c r="J2" t="str">
+        <v>0.48192771084337299</v>
+      </c>
+      <c r="J2" s="4" t="str">
         <f>SUBSTITUTE(H2,",",".")</f>
-        <v>0.481927710843373</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+        <v>0.490340296165539</v>
+      </c>
+      <c r="K2" s="1">
+        <f>VALUE(SUBSTITUTE(J2,".",","))</f>
+        <v>0.49034029616553898</v>
+      </c>
+      <c r="L2">
+        <f>C2/euro</f>
+        <v>0.4</v>
+      </c>
+      <c r="M2">
+        <f>L2+(L2*marza)</f>
+        <v>0.52</v>
+      </c>
+      <c r="N2">
+        <f>IF(M2&gt;1,M2,minimum)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B3">
         <f>Arkusz1!B3</f>
         <v>1</v>
@@ -1441,17 +1567,33 @@
       </c>
       <c r="H3" s="3">
         <f>C3/stałe!$B$2</f>
-        <v>0.48192771084337344</v>
-      </c>
-      <c r="I3">
-        <v>0.48192771084337344</v>
-      </c>
-      <c r="J3" t="str">
+        <v>0.49034029616553887</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="4" t="str">
         <f t="shared" ref="J3:J15" si="0">SUBSTITUTE(I3,",",".")</f>
         <v>0.481927710843373</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K14" si="1">VALUE(SUBSTITUTE(J3,".",","))</f>
+        <v>0.48192771084337299</v>
+      </c>
+      <c r="L3">
+        <f>C3/euro</f>
+        <v>0.4</v>
+      </c>
+      <c r="M3">
+        <f>L3+(L3*marza)</f>
+        <v>0.52</v>
+      </c>
+      <c r="N3">
+        <f>IF(M3&gt;1,M3,minimum)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B4">
         <f>Arkusz1!B4</f>
         <v>2</v>
@@ -1474,17 +1616,33 @@
       </c>
       <c r="H4" s="3">
         <f>C4/stałe!$B$2</f>
-        <v>0.96385542168674687</v>
+        <v>0.98068059233107774</v>
       </c>
       <c r="I4">
         <v>0.96385542168674687</v>
       </c>
-      <c r="J4" t="str">
+      <c r="J4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0.963855421686747</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96385542168674698</v>
+      </c>
+      <c r="L4">
+        <f>C4/euro</f>
+        <v>0.8</v>
+      </c>
+      <c r="M4">
+        <f>L4+(L4*marza)</f>
+        <v>1.04</v>
+      </c>
+      <c r="N4">
+        <f>IF(M4&gt;1,M4,minimum)</f>
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B5">
         <f>Arkusz1!B5</f>
         <v>3</v>
@@ -1507,17 +1665,33 @@
       </c>
       <c r="H5" s="3">
         <f>C5/stałe!$B$2</f>
-        <v>1.4457831325301203</v>
+        <v>1.4710208884966165</v>
       </c>
       <c r="I5">
         <v>1.4457831325301203</v>
       </c>
-      <c r="J5" t="str">
+      <c r="J5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1.44578313253012</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.44578313253012</v>
+      </c>
+      <c r="L5">
+        <f>C5/euro</f>
+        <v>1.2</v>
+      </c>
+      <c r="M5">
+        <f>L5+(L5*marza)</f>
+        <v>1.56</v>
+      </c>
+      <c r="N5">
+        <f>IF(M5&gt;1,M5,minimum)</f>
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>Arkusz1!B6</f>
         <v>4</v>
@@ -1540,17 +1714,33 @@
       </c>
       <c r="H6" s="3">
         <f>C6/stałe!$B$2</f>
-        <v>1.9277108433734937</v>
+        <v>1.9613611846621555</v>
       </c>
       <c r="I6">
         <v>1.9277108433734937</v>
       </c>
-      <c r="J6" t="str">
+      <c r="J6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1.92771084337349</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.92771084337349</v>
+      </c>
+      <c r="L6">
+        <f>C6/euro</f>
+        <v>1.6</v>
+      </c>
+      <c r="M6">
+        <f>L6+(L6*marza)</f>
+        <v>2.08</v>
+      </c>
+      <c r="N6">
+        <f>IF(M6&gt;1,M6,minimum)</f>
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>Arkusz1!B7</f>
         <v>5</v>
@@ -1573,17 +1763,33 @@
       </c>
       <c r="H7" s="3">
         <f>C7/stałe!$B$2</f>
-        <v>2.4096385542168672</v>
+        <v>2.4517014808276945</v>
       </c>
       <c r="I7">
         <v>2.4096385542168672</v>
       </c>
-      <c r="J7" t="str">
+      <c r="J7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2.40963855421687</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4096385542168699</v>
+      </c>
+      <c r="L7">
+        <f>C7/euro</f>
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f>L7+(L7*marza)</f>
+        <v>2.6</v>
+      </c>
+      <c r="N7">
+        <f>IF(M7&gt;1,M7,minimum)</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>Arkusz1!B8</f>
         <v>6</v>
@@ -1606,17 +1812,33 @@
       </c>
       <c r="H8" s="3">
         <f>C8/stałe!$B$2</f>
-        <v>2.8915662650602405</v>
+        <v>2.942041776993233</v>
       </c>
       <c r="I8">
         <v>2.8915662650602405</v>
       </c>
-      <c r="J8" t="str">
+      <c r="J8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2.89156626506024</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8915662650602401</v>
+      </c>
+      <c r="L8">
+        <f>C8/euro</f>
+        <v>2.4</v>
+      </c>
+      <c r="M8">
+        <f>L8+(L8*marza)</f>
+        <v>3.12</v>
+      </c>
+      <c r="N8">
+        <f>IF(M8&gt;1,M8,minimum)</f>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>Arkusz1!B9</f>
         <v>7</v>
@@ -1639,17 +1861,33 @@
       </c>
       <c r="H9" s="3">
         <f>C9/stałe!$B$2</f>
-        <v>3.6144578313253009</v>
+        <v>3.6775522212415415</v>
       </c>
       <c r="I9">
         <v>3.6144578313253009</v>
       </c>
-      <c r="J9" t="str">
+      <c r="J9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3.6144578313253</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>3.6144578313253</v>
+      </c>
+      <c r="L9">
+        <f>C9/euro</f>
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <f>L9+(L9*marza)</f>
+        <v>3.9</v>
+      </c>
+      <c r="N9">
+        <f>IF(M9&gt;1,M9,minimum)</f>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>Arkusz1!B10</f>
         <v>8</v>
@@ -1672,17 +1910,33 @@
       </c>
       <c r="H10" s="3">
         <f>C10/stałe!$B$2</f>
-        <v>3.8554216867469875</v>
+        <v>3.922722369324311</v>
       </c>
       <c r="I10">
         <v>3.8554216867469875</v>
       </c>
-      <c r="J10" t="str">
+      <c r="J10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3.85542168674699</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8554216867469902</v>
+      </c>
+      <c r="L10">
+        <f>C10/euro</f>
+        <v>3.2</v>
+      </c>
+      <c r="M10">
+        <f>L10+(L10*marza)</f>
+        <v>4.16</v>
+      </c>
+      <c r="N10">
+        <f>IF(M10&gt;1,M10,minimum)</f>
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B11">
         <f>Arkusz1!B11</f>
         <v>9</v>
@@ -1705,17 +1959,33 @@
       </c>
       <c r="H11" s="3">
         <f>C11/stałe!$B$2</f>
-        <v>4.3373493975903612</v>
+        <v>4.4130626654898499</v>
       </c>
       <c r="I11">
         <v>4.3373493975903612</v>
       </c>
-      <c r="J11" t="str">
+      <c r="J11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4.33734939759036</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3373493975903603</v>
+      </c>
+      <c r="L11">
+        <f>C11/euro</f>
+        <v>3.6</v>
+      </c>
+      <c r="M11">
+        <f>L11+(L11*marza)</f>
+        <v>4.68</v>
+      </c>
+      <c r="N11">
+        <f>IF(M11&gt;1,M11,minimum)</f>
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>Arkusz1!B12</f>
         <v>10</v>
@@ -1738,17 +2008,33 @@
       </c>
       <c r="H12" s="3">
         <f>C12/stałe!$B$2</f>
-        <v>4.8192771084337345</v>
+        <v>4.9034029616553889</v>
       </c>
       <c r="I12">
         <v>4.8192771084337345</v>
       </c>
-      <c r="J12" t="str">
+      <c r="J12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4.81927710843373</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="1">
+        <f t="shared" si="1"/>
+        <v>4.81927710843373</v>
+      </c>
+      <c r="L12">
+        <f>C12/euro</f>
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <f>L12+(L12*marza)</f>
+        <v>5.2</v>
+      </c>
+      <c r="N12">
+        <f>IF(M12&gt;1,M12,minimum)</f>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B13">
         <f>Arkusz1!B13</f>
         <v>55</v>
@@ -1771,17 +2057,33 @@
       </c>
       <c r="H13" s="3">
         <f>C13/stałe!$B$2</f>
-        <v>26.746987951807228</v>
+        <v>27.213886437187405</v>
       </c>
       <c r="I13">
         <v>26.746987951807228</v>
       </c>
-      <c r="J13" t="str">
+      <c r="J13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>26.7469879518072</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="1">
+        <f t="shared" si="1"/>
+        <v>26.746987951807199</v>
+      </c>
+      <c r="L13">
+        <f>C13/euro</f>
+        <v>22.2</v>
+      </c>
+      <c r="M13">
+        <f>L13+(L13*marza)</f>
+        <v>28.86</v>
+      </c>
+      <c r="N13">
+        <f>IF(M13&gt;1,M13,minimum)</f>
+        <v>28.86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B14">
         <f>Arkusz1!B14</f>
         <v>5.09</v>
@@ -1804,17 +2106,33 @@
       </c>
       <c r="H14" s="3">
         <f>C14/stałe!$B$2</f>
-        <v>2.4746987951807227</v>
+        <v>2.517897420810042</v>
       </c>
       <c r="I14">
         <v>2.4746987951807227</v>
       </c>
-      <c r="J14" t="str">
+      <c r="J14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2.47469879518072</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="1">
+        <f t="shared" si="1"/>
+        <v>2.47469879518072</v>
+      </c>
+      <c r="L14">
+        <f>C14/euro</f>
+        <v>2.0539999999999998</v>
+      </c>
+      <c r="M14">
+        <f>L14+(L14*marza)</f>
+        <v>2.6701999999999999</v>
+      </c>
+      <c r="N14">
+        <f>IF(M14&gt;1,M14,minimum)</f>
+        <v>2.6701999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>Arkusz1!B15</f>
         <v>10</v>
@@ -1837,14 +2155,30 @@
       </c>
       <c r="H15" s="3">
         <f>C15/stałe!$B$2</f>
-        <v>2.4096385542168672</v>
+        <v>2.4517014808276945</v>
       </c>
       <c r="I15">
         <v>2.4096385542168672</v>
       </c>
-      <c r="J15" t="str">
+      <c r="J15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2.40963855421687</v>
+      </c>
+      <c r="K15" s="1">
+        <f>VALUE(SUBSTITUTE(J15,".",","))</f>
+        <v>2.4096385542168699</v>
+      </c>
+      <c r="L15">
+        <f>C15/euro</f>
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <f>L15+(L15*marza)</f>
+        <v>2.6</v>
+      </c>
+      <c r="N15">
+        <f>IF(M15&gt;1,M15,minimum)</f>
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>
@@ -2183,28 +2517,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D29744-D2A9-49F3-8DA8-12163AD61AD7}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
       <c r="B1">
-        <v>4.8</v>
+        <f>[1]stałe!$B$1</f>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="B2">
-        <v>4.1500000000000004</v>
+      <c r="B2" cm="1">
+        <f t="array" ref="B2">[1]!moje</f>
+        <v>4.0788000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2213,6 +2552,14 @@
       </c>
       <c r="B3">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
